--- a/Pre-Test.xlsx
+++ b/Pre-Test.xlsx
@@ -131,7 +131,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CF25"/>
+  <dimension ref="A1:CF34"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="CF3" s="4" t="n">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -1531,7 +1531,7 @@
         <v>98</v>
       </c>
       <c r="CF4" s="4" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -1777,7 +1777,7 @@
         <v>98</v>
       </c>
       <c r="CF5" s="4" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="CF6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -2254,7 +2254,7 @@
         <v>89</v>
       </c>
       <c r="BW7" s="1" t="n">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="BX7" s="3"/>
       <c r="BY7" s="3" t="n">
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="CF7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="CF8" s="4" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="CF9" s="4" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="CF10" s="4" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="CF11" s="4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="CF12" s="4" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -3766,7 +3766,7 @@
         <v>46</v>
       </c>
       <c r="BW13" s="1" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BX13" s="3"/>
       <c r="BY13" s="3" t="n">
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="CF13" s="4" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="CF14" s="4" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -4270,7 +4270,7 @@
         <v>54</v>
       </c>
       <c r="BW15" s="1" t="n">
-        <v>535</v>
+        <v>588</v>
       </c>
       <c r="BX15" s="3"/>
       <c r="BY15" s="3" t="n">
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="CF15" s="4" t="n">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="CF16" s="4" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="CF17" s="4" t="n">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -5026,7 +5026,7 @@
         <v>66</v>
       </c>
       <c r="BW18" s="1" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="BX18" s="3"/>
       <c r="BY18" s="3" t="n">
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="CF18" s="4" t="n">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="CF19" s="4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -5530,7 +5530,7 @@
         <v>262</v>
       </c>
       <c r="BW20" s="1" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="BX20" s="3"/>
       <c r="BY20" s="3" t="n">
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="CF20" s="4" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -5782,7 +5782,7 @@
         <v>95</v>
       </c>
       <c r="BW21" s="1" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="BX21" s="3"/>
       <c r="BY21" s="3" t="n">
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="CF21" s="4" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -6034,7 +6034,7 @@
         <v>77</v>
       </c>
       <c r="BW22" s="1" t="n">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="BX22" s="3"/>
       <c r="BY22" s="3" t="n">
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="CF22" s="4" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="CF23" s="4" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -6538,7 +6538,7 @@
         <v>104</v>
       </c>
       <c r="BW24" s="1" t="n">
-        <v>554</v>
+        <v>605</v>
       </c>
       <c r="BX24" s="3"/>
       <c r="BY24" s="3" t="n">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="CF24" s="4" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -6815,7 +6815,2257 @@
         <v>0</v>
       </c>
       <c r="CF25" s="4" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="A26" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>45416.374918981</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP26" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="BQ26" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="BR26" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="BS26" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="BT26" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="BU26" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BV26" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="BW26" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3" t="n">
+        <v>45416.381168981</v>
+      </c>
+      <c r="BZ26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>45416.385208333</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT27" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO27" s="1" t="n">
+        <v>1381</v>
+      </c>
+      <c r="BP27" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="BQ27" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="BR27" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="BS27" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="BT27" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BU27" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="BV27" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="BW27" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="BX27" s="3"/>
+      <c r="BY27" s="3" t="n">
+        <v>45416.40681713</v>
+      </c>
+      <c r="BZ27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" s="4" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="A28" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>45416.419583333</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BN28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO28" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP28" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="BQ28" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="BR28" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="BS28" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="BT28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="BU28" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="BV28" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BW28" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="BX28" s="3"/>
+      <c r="BY28" s="3" t="n">
+        <v>45416.428090278</v>
+      </c>
+      <c r="BZ28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="A29" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>45416.421979167</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO29" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP29" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="BQ29" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="BR29" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="BS29" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="BT29" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BU29" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BV29" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="BW29" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="BX29" s="3"/>
+      <c r="BY29" s="3" t="n">
+        <v>45416.433449074</v>
+      </c>
+      <c r="BZ29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB29" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC29" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" s="4" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="A30" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>45416.471296296</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP30" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BQ30" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="BR30" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT30" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU30" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV30" s="1" t="n">
+        <v>115939</v>
+      </c>
+      <c r="BW30" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="BX30" s="3"/>
+      <c r="BY30" s="3" t="n">
+        <v>45416.47212963</v>
+      </c>
+      <c r="BZ30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CC30" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" s="4" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>45416.492453704</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO31" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="BP31" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="BQ31" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="BR31" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="BS31" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BT31" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="BU31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BV31" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="BW31" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="BX31" s="3"/>
+      <c r="BY31" s="3" t="n">
+        <v>45416.49900463</v>
+      </c>
+      <c r="BZ31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB31" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC31" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" s="4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="A32" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>45416.525393519</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BM32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO32" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BP32" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BQ32" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="BR32" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BS32" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BT32" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="BU32" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="BV32" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BW32" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="BX32" s="3"/>
+      <c r="BY32" s="3" t="n">
+        <v>45416.52875</v>
+      </c>
+      <c r="BZ32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" s="4" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="A33" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>45416.620046296</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO33" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="BP33" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="BQ33" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="BR33" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BS33" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="BT33" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="BU33" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BV33" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="BW33" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="BX33" s="3"/>
+      <c r="BY33" s="3" t="n">
+        <v>45416.62712963</v>
+      </c>
+      <c r="BZ33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" s="4" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>45417.447488426</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BN34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP34" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="BQ34" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="BR34" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="BS34" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BT34" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="BU34" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="BV34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BW34" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="BX34" s="3"/>
+      <c r="BY34" s="3" t="n">
+        <v>45417.451087963</v>
+      </c>
+      <c r="BZ34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC34" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" s="4" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
